--- a/results/compare-convergence.xlsx
+++ b/results/compare-convergence.xlsx
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.196200866049427e-05</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00886187994707243</v>
+        <v>0.009257061307804954</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.392401732098854e-05</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01786220207494338</v>
+        <v>0.02087996939546935</v>
       </c>
     </row>
     <row r="5">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.392401732098854e-05</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001834997108593087</v>
+        <v>0.002430081026329311</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.569606928395416e-05</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02654030372640867</v>
+        <v>0.002004958593512235</v>
       </c>
     </row>
     <row r="8">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.569606928395416e-05</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0009754263327004483</v>
+        <v>0.001296462360225636</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0001076580779444484</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01165703144225959</v>
+        <v>0.001234210277326547</v>
       </c>
     </row>
     <row r="11">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.588602598148281e-05</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0007192609121209502</v>
+        <v>0.0005920336822804389</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.000131582095265437</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005194014799150442</v>
+        <v>0.0007816147011672298</v>
       </c>
     </row>
     <row r="14">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.392401732098854e-05</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0006640583923622427</v>
+        <v>0.0003630393500167271</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.569606928395416e-05</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002893538311606405</v>
+        <v>0.0005131074178568532</v>
       </c>
     </row>
     <row r="17">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.196200866049427e-05</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0006681378529732612</v>
+        <v>0.0002630228286711957</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001435441039259312</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00196270747514102</v>
+        <v>0.000409063404174374</v>
       </c>
     </row>
     <row r="20">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.784803464197708e-05</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0006859380664271939</v>
+        <v>0.0002038477111811458</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001555061125864255</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00114607566900076</v>
+        <v>0.0004109650970464451</v>
       </c>
     </row>
   </sheetData>

--- a/results/compare-convergence.xlsx
+++ b/results/compare-convergence.xlsx
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0004067082944567701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009257061307804954</v>
+        <v>0.00372688965983901</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.0004067082944567701</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02087996939546935</v>
+        <v>0.004376347918878929</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07509749037058303</v>
+        <v>0.075097490370583</v>
       </c>
       <c r="D5" t="n">
         <v>1.350322328312583e-16</v>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.0001315820952654256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002430081026329311</v>
+        <v>0.000664209507163989</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.588602598147972e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002004958593512235</v>
+        <v>0.0006893138203955602</v>
       </c>
     </row>
     <row r="8">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02722553171128496</v>
+        <v>0.02722553171128494</v>
       </c>
       <c r="D8" t="n">
         <v>1.329117151445668e-16</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001296462360225636</v>
+        <v>0.0003298600883330056</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.196200866049324e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001234210277326547</v>
+        <v>0.0002350772833222824</v>
       </c>
     </row>
     <row r="11">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01281131127538936</v>
+        <v>0.01281131127538937</v>
       </c>
       <c r="D11" t="n">
         <v>1.325089178425925e-16</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0005920336822804389</v>
+        <v>0.0002492100194680069</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.196200866049324e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007816147011672298</v>
+        <v>0.0001110484950884167</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.007093471135673103</v>
+        <v>0.007093471135673157</v>
       </c>
       <c r="D14" t="n">
         <v>1.317704245998985e-16</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0003630393500167271</v>
+        <v>0.0002120613202740516</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0005131074178568532</v>
+        <v>5.990592924129946e-05</v>
       </c>
     </row>
     <row r="17">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.004402019187061891</v>
+        <v>0.004402019187061845</v>
       </c>
       <c r="D17" t="n">
         <v>1.32020345255262e-16</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0002630228286711957</v>
+        <v>0.0002103588048566428</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000409063404174374</v>
+        <v>3.45236515425856e-05</v>
       </c>
     </row>
     <row r="20">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.002882844087179119</v>
+        <v>0.002882844087179093</v>
       </c>
       <c r="D20" t="n">
         <v>1.316606958564404e-16</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0002038477111811458</v>
+        <v>0.0002538283194981582</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0004109650970464451</v>
+        <v>3.132375511498176e-05</v>
       </c>
     </row>
   </sheetData>
